--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42989,6 +42989,41 @@
         <v>4975600</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>19106900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43024,6 +43024,41 @@
         <v>19106900</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>8540900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43059,6 +43059,41 @@
         <v>8540900</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>4685400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43094,6 +43094,41 @@
         <v>4685400</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>4274000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43129,6 +43129,41 @@
         <v>4274000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>4288600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43164,6 +43164,41 @@
         <v>4288600</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>5543900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43199,6 +43199,41 @@
         <v>5543900</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>7853800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43234,6 +43234,41 @@
         <v>7853800</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>10468800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43269,6 +43269,41 @@
         <v>10468800</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>4041000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43304,6 +43304,41 @@
         <v>4041000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>8301000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43339,6 +43339,41 @@
         <v>8301000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>7472100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43374,6 +43374,41 @@
         <v>7472100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>3881900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43409,6 +43409,76 @@
         <v>3881900</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>8621900</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>8047000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43479,6 +43479,76 @@
         <v>8047000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>7074700</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>11080600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43549,6 +43549,41 @@
         <v>11080600</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>5439300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43584,6 +43584,41 @@
         <v>5439300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>3260900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43619,6 +43619,41 @@
         <v>3260900</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>3007000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43654,6 +43654,41 @@
         <v>3007000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>8210600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43689,6 +43689,76 @@
         <v>8210600</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>9008000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>7175200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43759,6 +43759,41 @@
         <v>7175200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>3822600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43794,6 +43794,41 @@
         <v>3822600</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>7465400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2096"/>
+  <dimension ref="A1:I2097"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73754,6 +73754,41 @@
         <v>7465400</v>
       </c>
     </row>
+    <row r="2097">
+      <c r="A2097" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2097" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2097" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2097" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F2097" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G2097" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2097" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2097" t="n">
+        <v>8651300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2097"/>
+  <dimension ref="A1:I2098"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73789,6 +73789,41 @@
         <v>8651300</v>
       </c>
     </row>
+    <row r="2098">
+      <c r="A2098" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2098" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2098" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2098" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2098" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G2098" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2098" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2098" t="n">
+        <v>3317600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2098"/>
+  <dimension ref="A1:I2099"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73824,6 +73824,41 @@
         <v>3317600</v>
       </c>
     </row>
+    <row r="2099">
+      <c r="A2099" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2099" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2099" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2099" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2099" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2099" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2099" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2099" t="n">
+        <v>2986700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2099"/>
+  <dimension ref="A1:I2100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73859,6 +73859,41 @@
         <v>2986700</v>
       </c>
     </row>
+    <row r="2100">
+      <c r="A2100" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2100" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2100" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2100" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2100" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G2100" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2100" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2100" t="n">
+        <v>2765000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2100"/>
+  <dimension ref="A1:I2101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73894,6 +73894,41 @@
         <v>2765000</v>
       </c>
     </row>
+    <row r="2101">
+      <c r="A2101" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2101" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2101" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2101" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2101" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2101" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2101" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I2101" t="n">
+        <v>3985000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2101"/>
+  <dimension ref="A1:I2102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73929,6 +73929,41 @@
         <v>3985000</v>
       </c>
     </row>
+    <row r="2102">
+      <c r="A2102" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2102" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2102" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2102" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2102" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2102" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2102" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I2102" t="n">
+        <v>4013400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2102"/>
+  <dimension ref="A1:I2103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73964,6 +73964,41 @@
         <v>4013400</v>
       </c>
     </row>
+    <row r="2103">
+      <c r="A2103" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2103" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2103" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2103" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2103" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2103" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2103" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2103" t="n">
+        <v>10378500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2103"/>
+  <dimension ref="A1:I2104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73999,6 +73999,41 @@
         <v>10378500</v>
       </c>
     </row>
+    <row r="2104">
+      <c r="A2104" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2104" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2104" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2104" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F2104" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2104" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2104" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I2104" t="n">
+        <v>9090400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2104"/>
+  <dimension ref="A1:I2105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74034,6 +74034,41 @@
         <v>9090400</v>
       </c>
     </row>
+    <row r="2105">
+      <c r="A2105" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2105" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2105" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2105" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2105" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2105" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2105" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I2105" t="n">
+        <v>5801300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2105"/>
+  <dimension ref="A1:I2106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74069,6 +74069,41 @@
         <v>5801300</v>
       </c>
     </row>
+    <row r="2106">
+      <c r="A2106" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2106" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2106" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2106" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F2106" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2106" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H2106" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2106" t="n">
+        <v>5555200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2106"/>
+  <dimension ref="A1:I2107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74104,6 +74104,41 @@
         <v>5555200</v>
       </c>
     </row>
+    <row r="2107">
+      <c r="A2107" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2107" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2107" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2107" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2107" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2107" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2107" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2107" t="n">
+        <v>1916800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2107"/>
+  <dimension ref="A1:I2108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74139,6 +74139,41 @@
         <v>1916800</v>
       </c>
     </row>
+    <row r="2108">
+      <c r="A2108" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2108" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2108" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2108" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2108" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G2108" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2108" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2108" t="n">
+        <v>13621500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2108"/>
+  <dimension ref="A1:I2109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74174,6 +74174,41 @@
         <v>13621500</v>
       </c>
     </row>
+    <row r="2109">
+      <c r="A2109" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2109" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2109" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2109" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F2109" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G2109" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2109" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2109" t="n">
+        <v>15565800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2109"/>
+  <dimension ref="A1:I2110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74209,6 +74209,41 @@
         <v>15565800</v>
       </c>
     </row>
+    <row r="2110">
+      <c r="A2110" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2110" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2110" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2110" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2110" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G2110" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2110" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2110" t="n">
+        <v>6549200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2110"/>
+  <dimension ref="A1:I2111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74244,6 +74244,41 @@
         <v>6549200</v>
       </c>
     </row>
+    <row r="2111">
+      <c r="A2111" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2111" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2111" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2111" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2111" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G2111" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2111" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2111" t="n">
+        <v>2659500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2479"/>
+  <dimension ref="A1:I2480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87159,6 +87159,41 @@
         <v>2659500</v>
       </c>
     </row>
+    <row r="2480">
+      <c r="A2480" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2480" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2480" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2480" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F2480" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G2480" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2480" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I2480" t="n">
+        <v>9590200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2480"/>
+  <dimension ref="A1:I2481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87194,6 +87194,41 @@
         <v>9590200</v>
       </c>
     </row>
+    <row r="2481">
+      <c r="A2481" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2481" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2481" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2481" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2481" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2481" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2481" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2481" t="n">
+        <v>14457600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2481"/>
+  <dimension ref="A1:I2482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87229,6 +87229,41 @@
         <v>14457600</v>
       </c>
     </row>
+    <row r="2482">
+      <c r="A2482" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2482" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2482" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2482" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2482" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G2482" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2482" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2482" t="n">
+        <v>13573500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2482"/>
+  <dimension ref="A1:I2483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87264,6 +87264,41 @@
         <v>13573500</v>
       </c>
     </row>
+    <row r="2483">
+      <c r="A2483" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2483" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2483" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2483" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F2483" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2483" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2483" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2483" t="n">
+        <v>9185400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2483"/>
+  <dimension ref="A1:I2484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87299,6 +87299,41 @@
         <v>9185400</v>
       </c>
     </row>
+    <row r="2484">
+      <c r="A2484" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2484" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2484" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2484" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2484" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2484" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2484" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H2484" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2484" t="n">
+        <v>6716200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2484"/>
+  <dimension ref="A1:I2485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87334,6 +87334,41 @@
         <v>6716200</v>
       </c>
     </row>
+    <row r="2485">
+      <c r="A2485" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2485" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2485" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2485" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2485" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2485" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G2485" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2485" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I2485" t="n">
+        <v>6453100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2485"/>
+  <dimension ref="A1:I2486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87369,6 +87369,41 @@
         <v>6453100</v>
       </c>
     </row>
+    <row r="2486">
+      <c r="A2486" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2486" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2486" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2486" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2486" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2486" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G2486" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2486" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2486" t="n">
+        <v>5321000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2486"/>
+  <dimension ref="A1:I2487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87404,6 +87404,41 @@
         <v>5321000</v>
       </c>
     </row>
+    <row r="2487">
+      <c r="A2487" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2487" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2487" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2487" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2487" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F2487" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2487" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2487" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2487" t="n">
+        <v>6511200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2487"/>
+  <dimension ref="A1:I2488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87439,6 +87439,41 @@
         <v>6511200</v>
       </c>
     </row>
+    <row r="2488">
+      <c r="A2488" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2488" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2488" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2488" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2488" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F2488" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G2488" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2488" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I2488" t="n">
+        <v>7788500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2488"/>
+  <dimension ref="A1:I2489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87474,6 +87474,41 @@
         <v>7788500</v>
       </c>
     </row>
+    <row r="2489">
+      <c r="A2489" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2489" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2489" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2489" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2489" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2489" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2489" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H2489" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I2489" t="n">
+        <v>12476100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2489"/>
+  <dimension ref="A1:I2491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87509,6 +87509,76 @@
         <v>12476100</v>
       </c>
     </row>
+    <row r="2490">
+      <c r="A2490" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2490" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2490" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2490" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2490" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2490" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2490" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H2490" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2490" t="n">
+        <v>6656500</v>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2491" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2491" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2491" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F2491" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2491" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2491" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2491" t="n">
+        <v>4841800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2491"/>
+  <dimension ref="A1:I2492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87579,6 +87579,41 @@
         <v>4841800</v>
       </c>
     </row>
+    <row r="2492">
+      <c r="A2492" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2492" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2492" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2492" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2492" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2492" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2492" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2492" t="n">
+        <v>9182400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2492"/>
+  <dimension ref="A1:I2495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87614,6 +87614,111 @@
         <v>9182400</v>
       </c>
     </row>
+    <row r="2493">
+      <c r="A2493" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2493" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2493" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2493" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F2493" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2493" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2493" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2493" t="n">
+        <v>6415400</v>
+      </c>
+    </row>
+    <row r="2494">
+      <c r="A2494" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2494" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2494" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2494" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2494" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2494" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G2494" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2494" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2494" t="n">
+        <v>2690600</v>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="A2495" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2495" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2495" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2495" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2495" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F2495" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2495" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2495" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I2495" t="n">
+        <v>3372000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2495"/>
+  <dimension ref="A1:I2496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87719,6 +87719,41 @@
         <v>3372000</v>
       </c>
     </row>
+    <row r="2496">
+      <c r="A2496" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2496" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2496" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2496" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2496" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F2496" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G2496" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2496" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I2496" t="n">
+        <v>57640100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2496"/>
+  <dimension ref="A1:I2497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87754,6 +87754,41 @@
         <v>57640100</v>
       </c>
     </row>
+    <row r="2497">
+      <c r="A2497" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2497" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2497" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2497" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2497" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2497" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2497" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H2497" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I2497" t="n">
+        <v>27273000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0120.xlsx
+++ b/data/0120.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2497"/>
+  <dimension ref="A1:I2500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87789,6 +87789,111 @@
         <v>27273000</v>
       </c>
     </row>
+    <row r="2498">
+      <c r="A2498" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2498" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2498" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2498" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2498" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F2498" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G2498" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H2498" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I2498" t="n">
+        <v>21420400</v>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="A2499" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2499" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2499" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2499" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2499" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F2499" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2499" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H2499" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I2499" t="n">
+        <v>4196700</v>
+      </c>
+    </row>
+    <row r="2500">
+      <c r="A2500" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2500" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2500" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="D2500" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="E2500" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F2500" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G2500" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H2500" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I2500" t="n">
+        <v>9999900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
